--- a/backend/photography.xlsx
+++ b/backend/photography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\complete web development\Colon-Problems_LOC5.0\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3B9279-0AA3-4188-A095-3523262D1A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0714E9-6E0F-425C-A67A-406A43F490F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7270" xr2:uid="{E294A8E9-A345-43DD-A14A-DBB2571DD0C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E294A8E9-A345-43DD-A14A-DBB2571DD0C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69B4DFE-D025-4724-8FC1-E04B852936FB}">
   <dimension ref="A1:D275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
